--- a/backend/database/PostgreSQL-orders.xlsx
+++ b/backend/database/PostgreSQL-orders.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="create-orders" sheetId="1" r:id="rId1"/>
     <sheet name="create-orders-messages" sheetId="7" r:id="rId2"/>
     <sheet name="create-orders-assets" sheetId="2" r:id="rId3"/>
+    <sheet name="insert_orders" sheetId="8" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>CREATE TABLE</t>
   </si>
@@ -136,6 +138,24 @@
   </si>
   <si>
     <t>orders_assets</t>
+  </si>
+  <si>
+    <t>INSERT INTO orders_messages VALUES (2000, 3, 'Substituir o óleo dos geradores MTU (urgente)', '2019-08-29 08:30:59', '2019-08-29 08:30:59');</t>
+  </si>
+  <si>
+    <t>INSERT INTO orders_assets VALUES (2000, 'CASF-000-000');</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>INSERT INTO orders VALUES (1000, 'R', 'N', 'E', null, 0, 'Instalar nova tomada na sala do SEPLAG', 'SEPLAG', 'Pedro Henrique Serafim', 'Pedro', '2339', 'pedrohs@senado.leg.br', 'Nova tomada', 'Mezanino da SINFRA', 1, 'SIGAD', null, null, now(), null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO orders VALUES (2000, 'E', 'H', 'E', null, 50, 'Troca de óleo dos geradores MTU', 'SEGEEN', 'Igor Grimaldi', 'Lauro', '3456', 'coemant@senado.leg.br', 'Troca de óleo', 'Galpão da Gráfica do Senado', 1, 'SIGAD', '2019-09-01', '2019-08-30', '2019-08-30', 'CT-2014-0088');</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -183,10 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,16 +231,184 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="list"/>
+      <sheetName val="create"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>asset_category_type</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>order_status_type</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>order_priority_type</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>order_category_type</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CREATE TYPE asset_category_type AS ENUM ('F', 'E');</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="create-departments"/>
+      <sheetName val="create-assets-departments"/>
+      <sheetName val="insert-departments"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>departments</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>department_id</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>INSERT INTO departments VALUES ('SF', 'SF', 'Senado Federal', true);</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="raw"/>
+      <sheetName val="create-contracts"/>
+      <sheetName val="insert-contracts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>contracts</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>contract_id</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="create-persons"/>
+      <sheetName val="create-accounts"/>
+      <sheetName val="insert_persons"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v xml:space="preserve">CREATE TABLE </v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>persons</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>person_id</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CREATE TABLE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>INSERT INTO persons VALUES (1, 'hzlopes@senado.leg.br', 'Henrique', 'Zaidan', '2339', 'SEPLAG', null, 'E');</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="raw0"/>
       <sheetName val="raw"/>
       <sheetName val="create-assets"/>
       <sheetName val="insert-assets"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
+          <cell r="A1" t="str">
+            <v>CREATE TABLE</v>
+          </cell>
           <cell r="B1" t="str">
             <v>assets</v>
           </cell>
@@ -231,90 +422,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="list"/>
-      <sheetName val="create"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>order_status_type</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>order_priority_type</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>order_category_type</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="create-departments"/>
-      <sheetName val="insert-departments"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>departments</v>
-          </cell>
-        </row>
+      <sheetData sheetId="3">
         <row r="2">
           <cell r="A2" t="str">
-            <v>department_id</v>
+            <v>INSERT INTO assets VALUES ('CASF-000-000', 'CASF-000-000', 'Complexo Arquitetônico - Todos', 'Descrição do ativo', 'F', 0, 0, 0, 'Fabricante', '0', '0', '0', 'Garantia');</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="create-persons"/>
-      <sheetName val="create-accounts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>persons</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>person_id</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -607,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>[2]list!$A$4</f>
+        <f>[1]list!$A$3</f>
         <v>order_status_type</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -659,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>[2]list!$A$5</f>
+        <f>[1]list!$A$4</f>
         <v>order_priority_type</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -671,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>[2]list!$A$6</f>
+        <f>[1]list!$A$5</f>
         <v>order_category_type</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -721,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE("REFERENCES ",'[3]create-departments'!$B$1," (",'[3]create-departments'!$A$2,"),")</f>
+        <f>CONCATENATE("REFERENCES ",'[2]create-departments'!$B$1," (",'[2]create-departments'!$A$2,"),")</f>
         <v>REFERENCES departments (department_id),</v>
       </c>
     </row>
@@ -821,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,15 +957,31 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>CONCATENATE("REFERENCES ",'[3]create-contracts'!$B$1," (",'[3]create-contracts'!$A$2,")")</f>
+        <v>REFERENCES contracts (contract_id)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,15 +1130,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>'[1]create-assets'!$A$2</f>
+        <f>'[5]create-assets'!$A$2</f>
         <v>asset_id</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>'[1]create-assets'!$B$2</f>
+        <f>'[5]create-assets'!$B$2</f>
         <v>text</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE("NOT NULL REFERENCES ",'[1]create-assets'!$B$1," (",'[1]create-assets'!$A$2,")")</f>
+        <f>CONCATENATE("NOT NULL REFERENCES ",'[5]create-assets'!$B$1," (",'[5]create-assets'!$A$2,")")</f>
         <v>NOT NULL REFERENCES assets (asset_id)</v>
       </c>
     </row>
@@ -1021,6 +1151,44 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="132.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
